--- a/lectures/solutions/ch1_ex.xlsx
+++ b/lectures/solutions/ch1_ex.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="efficiency_old" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="welfare" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="efficiency_old" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="welfare" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="welfare_prices" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,8 +22,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Egor</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF0000FF"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">200@4
+200@3.5
+100+100@3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF0000FF"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100@3
+400@4
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
   <si>
     <t xml:space="preserve">Actual trade</t>
   </si>
@@ -85,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade price</t>
   </si>
 </sst>
 </file>
@@ -94,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,6 +182,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -225,10 +281,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -279,6 +331,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -353,6 +409,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -378,247 +540,247 @@
         <v>0</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="n">
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" s="8" t="n">
+      <c r="D5" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>-600</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>-600</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="8" t="n">
         <v>-600</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="n">
         <v>-400</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="n">
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
         <v>-200</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="10" t="n">
         <v>-200</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="8" t="n">
         <v>-200</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -660,201 +822,201 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="n">
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>-200</v>
       </c>
-      <c r="E4" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="F4" s="9" t="n">
+      <c r="E4" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="6" t="n">
         <v>-200</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>-500</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="n">
+      <c r="E6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="n">
+      <c r="E7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>600</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>-600</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="8" t="n">
         <v>-600</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="n">
         <v>-400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>-500</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" s="11" t="n">
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>-200</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="8" t="n">
         <v>-200</v>
       </c>
     </row>
@@ -879,7 +1041,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -897,275 +1059,275 @@
         <v>18</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="n">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="F3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="n">
+      <c r="F3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="F4" s="14" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="F5" s="14" t="n">
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F5" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="G5" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="n">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="n">
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="F6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13" t="n">
+      <c r="D7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="F7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="F7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13" t="n">
+      <c r="D8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="n">
         <v>-600</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="13" t="n">
         <v>-600</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="14" t="n">
         <v>-600</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="n">
+      <c r="D9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="F9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="n">
+      <c r="F9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="n">
         <v>-400</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="13" t="n">
         <v>500</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="14" t="n">
         <v>500</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="n">
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
         <v>-200</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="13" t="n">
         <v>-200</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="14" t="n">
         <v>-200</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -1180,14 +1342,14 @@
         <f aca="false">SUMPRODUCT($C3:$C11,G3:G11)</f>
         <v>3900</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1201,4 +1363,385 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>-600</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>-600</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>-600</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>-400</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="H10" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>-200</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>-200</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">SUMPRODUCT($C3:$C11,D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">SUMPRODUCT($C3:$C11,F3:F11)</f>
+        <v>4350</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">SUMPRODUCT($C3:$C11,G3:G11)</f>
+        <v>3900</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">SUMPRODUCT($C3:$C11-H3:H11,F3:F11)</f>
+        <v>4350</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">SUMPRODUCT($C3:$C11-I3:I11,G3:G11)</f>
+        <v>3900</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>